--- a/data/ltloggerdatacapturesummary_l.xlsx
+++ b/data/ltloggerdatacapturesummary_l.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\Documents\Laura\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D21F7-9A0E-4B7B-B3BF-A1D51F6B7951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E84817-D7D9-4FE8-B21E-BE60AD96CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="70" windowWidth="13200" windowHeight="13650" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="25395" yWindow="-29250" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
     <t>h_2_4</t>
   </si>
   <si>
-    <t>distance_ft</t>
+    <t>distance_from_reference_ft</t>
   </si>
 </sst>
 </file>
@@ -1213,16 +1213,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
   <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3671875" customWidth="1"/>
+    <col min="10" max="11" width="15.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K3">
         <v>25</v>
@@ -1336,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K4">
         <v>25</v>
@@ -1374,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>50</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1412,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1450,7 +1451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K7">
         <v>25</v>
@@ -1488,7 +1489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>150</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K8">
         <v>25</v>
@@ -1526,7 +1527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -1564,7 +1565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K10">
         <v>25</v>
@@ -1602,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>75</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K11">
         <v>25</v>
@@ -1640,7 +1641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K12">
         <v>25</v>
@@ -1678,7 +1679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>150</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K13">
         <v>25</v>
@@ -1716,12 +1717,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1754,7 +1755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1792,7 +1793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K16">
         <v>25</v>
@@ -1830,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>50</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K17">
         <v>25</v>
@@ -1868,7 +1869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>75</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K18">
         <v>25</v>
@@ -1906,7 +1907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K19">
         <v>25</v>
@@ -1944,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>150</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K20">
         <v>25</v>
@@ -1982,7 +1983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K21">
         <v>25</v>
@@ -2020,7 +2021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>50</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K22">
         <v>25</v>
@@ -2058,7 +2059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>75</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K23">
         <v>25</v>
@@ -2096,7 +2097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -2134,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>150</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="K25">
         <v>25</v>
@@ -2172,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44821</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44821</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44821</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44821</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44821</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44821</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44821</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44821</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44821</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44756</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44756</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44756</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44756</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44756</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44756</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44756</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44756</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44756</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44756</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44756</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44756</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44756</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44756</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44756</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44756</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44756</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44756</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44756</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44814</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44814</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44814</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44814</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44814</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44814</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44814</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44814</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44814</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44814</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44814</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44814</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44814</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44814</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44814</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44760</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44760</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44760</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44760</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44760</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44760</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44760</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44760</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44760</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44760</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44760</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44760</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44760</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44760</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44760</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44760</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44760</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44760</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44760</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44760</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44760</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44760</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44760</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44760</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44760</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44760</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44760</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44760</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44829</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44829</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44829</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44800</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44800</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44800</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44800</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44800</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44800</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44800</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44800</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44800</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44800</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44800</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44800</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44800</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44800</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44800</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44800</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44800</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>44800</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>44800</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>44800</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>44800</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44800</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44800</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44800</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44800</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44800</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44800</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44800</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44800</v>
       </c>
@@ -7758,7 +7759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44800</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44800</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44800</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44800</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44839</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44839</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44839</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44839</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44839</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44839</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44839</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44839</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44839</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44839</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44839</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44839</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44839</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44839</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44849</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44849</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44849</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44849</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44849</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44849</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44849</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44849</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44849</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44849</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44849</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44849</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44849</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44849</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44849</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44849</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44849</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44849</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44849</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44849</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44849</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44849</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44849</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44849</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44867</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44867</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44867</v>
       </c>
@@ -9544,7 +9545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44867</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44867</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44867</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44867</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44867</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44867</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44867</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44867</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44867</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44874</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44874</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44874</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44874</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44874</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44874</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44874</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44874</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44874</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44874</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44874</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44874</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44874</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44874</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44874</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44874</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44874</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44874</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44874</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44874</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44874</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44874</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44874</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44874</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44715</v>
       </c>
@@ -10836,7 +10837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44715</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44715</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44715</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44715</v>
       </c>
@@ -10988,7 +10989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44715</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44715</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44715</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44715</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44715</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44715</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44715</v>
       </c>

--- a/data/ltloggerdatacapturesummary_l.xlsx
+++ b/data/ltloggerdatacapturesummary_l.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E84817-D7D9-4FE8-B21E-BE60AD96CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006F8B9D-6A1E-40D7-BB68-EE53E4FC8252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25395" yWindow="-29250" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1214,7 +1227,7 @@
   <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1328,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>25</v>
@@ -1366,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="J4">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>25</v>
@@ -1404,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="J5">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1442,7 +1455,7 @@
         <v>75</v>
       </c>
       <c r="J6">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1480,7 +1493,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>25</v>
@@ -1518,7 +1531,7 @@
         <v>150</v>
       </c>
       <c r="J8">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>25</v>
@@ -1556,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="J9">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -1594,7 +1607,7 @@
         <v>50</v>
       </c>
       <c r="J10">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>25</v>
@@ -1632,7 +1645,7 @@
         <v>75</v>
       </c>
       <c r="J11">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>25</v>
@@ -1670,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>25</v>
@@ -1708,7 +1721,7 @@
         <v>150</v>
       </c>
       <c r="J13">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>25</v>
@@ -1784,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1822,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="J16">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>25</v>
@@ -1860,7 +1873,7 @@
         <v>50</v>
       </c>
       <c r="J17">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>25</v>
@@ -1898,7 +1911,7 @@
         <v>75</v>
       </c>
       <c r="J18">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>25</v>
@@ -1936,7 +1949,7 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>25</v>
@@ -1974,7 +1987,7 @@
         <v>150</v>
       </c>
       <c r="J20">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>25</v>
@@ -2012,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>25</v>
@@ -2050,7 +2063,7 @@
         <v>50</v>
       </c>
       <c r="J22">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>25</v>
@@ -2088,7 +2101,7 @@
         <v>75</v>
       </c>
       <c r="J23">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>25</v>
@@ -2126,7 +2139,7 @@
         <v>100</v>
       </c>
       <c r="J24">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -2164,7 +2177,7 @@
         <v>150</v>
       </c>
       <c r="J25">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>25</v>
